--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIT254 Interactive Media Application Development\InteractiveMediaProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6BCCE3-2D6E-4DFE-A24C-835472FBABA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F9B75C-30F7-4200-86F9-0E5B81FAB25E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -195,31 +195,7 @@
     <t>Make shopping lists</t>
   </si>
   <si>
-    <t>Version eight</t>
-  </si>
-  <si>
     <t>Kieran Abelen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IT245</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - Project Plan</t>
-    </r>
   </si>
   <si>
     <t>IT245 - Project Plan</t>
@@ -1042,278 +1018,278 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="35" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="9" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="28" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="35" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="11" fillId="9" borderId="11" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1687,1012 +1663,1017 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="15"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="2:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="58" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="30"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="14">
         <v>0.5</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="35">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="16">
         <f>G5-E5</f>
         <v>-0.5</v>
       </c>
-      <c r="K5" s="36"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="14">
         <v>0.5</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="35">
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="16">
         <f>G6-E6</f>
         <v>-0.5</v>
       </c>
-      <c r="K6" s="36"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="14">
         <v>0.5</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="35">
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="16">
         <f t="shared" ref="J7:J50" si="0">G7-E7</f>
         <v>-0.5</v>
       </c>
-      <c r="K7" s="36"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33">
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="14">
         <v>0.5</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="35">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="16">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40">
+      <c r="D9" s="84"/>
+      <c r="E9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="42">
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="20">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47">
+      <c r="D10" s="80"/>
+      <c r="E10" s="22">
         <v>4</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="49">
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="24">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47">
+      <c r="D11" s="80"/>
+      <c r="E11" s="22">
         <v>2</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="49">
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="24">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54">
+      <c r="D12" s="82"/>
+      <c r="E12" s="27">
         <v>1</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="58">
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="31">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K12" s="59"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="18">
         <v>0.5</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="42">
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="20">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K14" s="43"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="22">
         <v>1</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="49">
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="22">
         <v>1</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="49">
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K16" s="51"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="22">
         <v>0.5</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="49">
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="24">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K17" s="51"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71" t="s">
+      <c r="B18" s="88"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="22">
         <v>1</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="49">
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K18" s="51"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="71" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="49">
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K19" s="51"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="69"/>
-      <c r="C20" s="73" t="s">
+      <c r="B20" s="88"/>
+      <c r="C20" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="22">
         <v>0.5</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="49">
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="24">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K20" s="51"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="22">
         <v>1</v>
       </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="49">
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K21" s="51"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="71" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="22">
         <v>1</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="49">
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K22" s="51"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="69"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="22">
         <v>0.5</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="49">
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="24">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K23" s="51"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="22">
         <v>1</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="49">
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K24" s="51"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="71" t="s">
+      <c r="B25" s="88"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="47">
+      <c r="E25" s="22">
         <v>1</v>
       </c>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="49">
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K25" s="51"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="69"/>
-      <c r="C26" s="73" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="22">
         <v>0.5</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="49">
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="24">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K26" s="51"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71" t="s">
+      <c r="B27" s="88"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="22">
         <v>1</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="49">
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K27" s="51"/>
+      <c r="K27" s="26"/>
     </row>
     <row r="28" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="71" t="s">
+      <c r="B28" s="88"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="22">
         <v>1</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="49">
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K28" s="51"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="69"/>
-      <c r="C29" s="73" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="22">
         <v>0.5</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="49">
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="24">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K29" s="51"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71" t="s">
+      <c r="B30" s="88"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="47">
+      <c r="E30" s="22">
         <v>1</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="49">
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K30" s="51"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="71" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="22">
         <v>1</v>
       </c>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="49">
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K31" s="51"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="69"/>
-      <c r="C32" s="73" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="22">
         <v>0.5</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="49">
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="24">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K32" s="51"/>
+      <c r="K32" s="26"/>
     </row>
     <row r="33" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="49">
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K33" s="51"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="71" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="22">
         <v>1</v>
       </c>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="49">
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K34" s="51"/>
+      <c r="K34" s="26"/>
     </row>
     <row r="35" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="69"/>
-      <c r="C35" s="73" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="22">
         <v>0.5</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="49">
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="24">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="K35" s="51"/>
+      <c r="K35" s="26"/>
     </row>
     <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71" t="s">
+      <c r="B36" s="88"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="22">
         <v>1</v>
       </c>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="49">
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K36" s="51"/>
+      <c r="K36" s="26"/>
     </row>
     <row r="37" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="69"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="71" t="s">
+      <c r="B37" s="88"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="22">
         <v>1</v>
       </c>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="49">
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="24">
         <v>0</v>
       </c>
-      <c r="K37" s="51"/>
+      <c r="K37" s="26"/>
     </row>
     <row r="38" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="69"/>
-      <c r="C38" s="74" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="22">
         <v>1</v>
       </c>
-      <c r="F38" s="48"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="49">
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K38" s="51"/>
+      <c r="K38" s="26"/>
     </row>
     <row r="39" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="69"/>
-      <c r="C39" s="45" t="s">
+      <c r="B39" s="88"/>
+      <c r="C39" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47">
+      <c r="D39" s="80"/>
+      <c r="E39" s="22">
         <v>1</v>
       </c>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="49">
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K39" s="51"/>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="69"/>
-      <c r="C40" s="75" t="s">
+      <c r="B40" s="88"/>
+      <c r="C40" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="22">
         <v>2</v>
       </c>
-      <c r="F40" s="48"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="49">
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="24">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="K40" s="51"/>
+      <c r="K40" s="26"/>
     </row>
     <row r="41" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="69"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="76" t="s">
+      <c r="B41" s="88"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="22">
         <v>2</v>
       </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="49">
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="24">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="K41" s="51"/>
+      <c r="K41" s="26"/>
     </row>
     <row r="42" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="69"/>
-      <c r="C42" s="45" t="s">
+      <c r="B42" s="88"/>
+      <c r="C42" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="47">
+      <c r="D42" s="94"/>
+      <c r="E42" s="22">
         <v>1</v>
       </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="49">
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K42" s="51"/>
+      <c r="K42" s="26"/>
     </row>
     <row r="43" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="69"/>
-      <c r="C43" s="45" t="s">
+      <c r="B43" s="88"/>
+      <c r="C43" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="47">
+      <c r="D43" s="94"/>
+      <c r="E43" s="22">
         <v>1</v>
       </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="49">
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K43" s="51"/>
+      <c r="K43" s="26"/>
     </row>
     <row r="44" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="69"/>
-      <c r="C44" s="45" t="s">
+      <c r="B44" s="88"/>
+      <c r="C44" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="47">
+      <c r="D44" s="80"/>
+      <c r="E44" s="22">
         <v>1</v>
       </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="49">
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K44" s="51"/>
+      <c r="K44" s="26"/>
     </row>
     <row r="45" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="79"/>
-      <c r="C45" s="52" t="s">
+      <c r="B45" s="89"/>
+      <c r="C45" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54">
+      <c r="D45" s="82"/>
+      <c r="E45" s="27">
         <v>2</v>
       </c>
-      <c r="F45" s="55"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="58">
+      <c r="F45" s="28"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="31">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="K45" s="59"/>
+      <c r="K45" s="32"/>
     </row>
     <row r="46" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="40">
+      <c r="D46" s="84"/>
+      <c r="E46" s="18">
         <v>2</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="41"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="42">
+      <c r="J46" s="20">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="K46" s="43"/>
+      <c r="K46" s="21"/>
     </row>
     <row r="47" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="81"/>
-      <c r="C47" s="45" t="s">
+      <c r="B47" s="77"/>
+      <c r="C47" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47">
+      <c r="D47" s="80"/>
+      <c r="E47" s="22">
         <v>1</v>
       </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="49">
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="24">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K47" s="51"/>
+      <c r="K47" s="26"/>
     </row>
     <row r="48" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="81"/>
-      <c r="C48" s="45" t="s">
+      <c r="B48" s="77"/>
+      <c r="C48" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="47">
+      <c r="D48" s="80"/>
+      <c r="E48" s="22">
         <v>4</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="49">
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="24">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="K48" s="51"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="82"/>
-      <c r="C49" s="52" t="s">
+      <c r="B49" s="78"/>
+      <c r="C49" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54">
+      <c r="D49" s="82"/>
+      <c r="E49" s="27">
         <v>10</v>
       </c>
-      <c r="F49" s="55"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="58">
+      <c r="F49" s="28"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="31">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="K49" s="59"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="84" t="s">
+      <c r="C50" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33">
+      <c r="D50" s="86"/>
+      <c r="E50" s="14">
         <v>1</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="34"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="35">
+      <c r="J50" s="16">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="K50" s="36"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="2:11" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="86" t="s">
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="87">
+      <c r="E51" s="43">
         <f>SUM(E5:E50)</f>
         <v>59</v>
       </c>
-      <c r="F51" s="88" t="s">
+      <c r="F51" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="89"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="92">
+      <c r="G51" s="74"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="45">
         <f>SUM(J5:J50)</f>
         <v>-58</v>
       </c>
-      <c r="K51" s="93"/>
+      <c r="K51" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="F51:H51"/>
@@ -2709,22 +2690,17 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="B51:F51 K51">
     <cfRule type="expression" dxfId="6" priority="17">

--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIT254 Interactive Media Application Development\InteractiveMediaProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47143794-86A6-4EA6-B81F-50D9F13D9AF1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37725982-33EC-40BE-AABF-8D8A64AEC645}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Version two</t>
-  </si>
-  <si>
     <t>Prototype</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Implement suggestions</t>
+  </si>
+  <si>
+    <t>Version Two</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,6 +875,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="23" fillId="9" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -899,20 +917,29 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -920,24 +947,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -952,18 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="23" fillId="9" borderId="5" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1319,8 +1316,8 @@
   </sheetPr>
   <dimension ref="B1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1341,14 +1338,14 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="45"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="8" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="9"/>
@@ -1368,54 +1365,54 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="50"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="39"/>
+    </row>
+    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -1424,108 +1421,134 @@
       <c r="E5" s="14">
         <v>2</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50"/>
+      <c r="F5" s="25">
+        <v>43718</v>
+      </c>
+      <c r="G5" s="24">
+        <v>3</v>
+      </c>
+      <c r="H5" s="25">
+        <v>43721</v>
+      </c>
       <c r="I5" s="20">
         <v>43721</v>
       </c>
       <c r="J5" s="14">
         <f>G5-E5</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="50"/>
+      <c r="F6" s="25">
+        <v>43718</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <v>43721</v>
+      </c>
       <c r="I6" s="20">
         <v>43721</v>
       </c>
       <c r="J6" s="14">
         <f>G6-E6</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="14">
         <v>2</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="25">
         <v>43721</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52">
-        <v>43728</v>
+      <c r="G7" s="24">
+        <v>2</v>
+      </c>
+      <c r="H7" s="25">
+        <v>43721</v>
       </c>
       <c r="I7" s="20">
         <v>43721</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" ref="J7:J34" si="0">G7-E7</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="14">
         <v>3</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50"/>
+      <c r="F8" s="25">
+        <v>43728</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25">
+        <v>43728</v>
+      </c>
       <c r="I8" s="20">
         <v>43728</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="14">
         <v>2</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50"/>
+      <c r="F9" s="25">
+        <v>43728</v>
+      </c>
+      <c r="G9" s="24">
+        <v>2</v>
+      </c>
+      <c r="H9" s="25">
+        <v>43731</v>
+      </c>
       <c r="I9" s="20">
         <v>43728</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="22" t="s">
         <v>20</v>
       </c>
@@ -1535,21 +1558,27 @@
       <c r="E10" s="14">
         <v>2</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="50"/>
+      <c r="F10" s="25">
+        <v>43728</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="25">
+        <v>43728</v>
+      </c>
       <c r="I10" s="20">
         <v>43728</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
-      <c r="C11" s="24" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -1558,111 +1587,141 @@
       <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="50"/>
+      <c r="F11" s="25">
+        <v>43728</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="25">
+        <v>43728</v>
+      </c>
       <c r="I11" s="20">
         <v>43735</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="50"/>
+      <c r="F12" s="25">
+        <v>43728</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="25">
+        <v>43728</v>
+      </c>
       <c r="I12" s="20">
         <v>43735</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="F13" s="25">
+        <v>43734</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
+        <v>43734</v>
+      </c>
       <c r="I13" s="20">
         <v>43735</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13"/>
+      <c r="F14" s="25">
+        <v>43734</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>43734</v>
+      </c>
       <c r="I14" s="20">
         <v>43735</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
+      <c r="F15" s="25">
+        <v>43734</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="25">
+        <v>43734</v>
+      </c>
       <c r="I15" s="20">
         <v>43735</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>29</v>
+      <c r="B16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -1680,10 +1739,10 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="14">
         <v>2</v>
@@ -1701,10 +1760,10 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="14">
         <v>3</v>
@@ -1722,10 +1781,10 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="14">
         <v>4</v>
@@ -1743,10 +1802,10 @@
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="14">
         <v>5</v>
@@ -1764,10 +1823,10 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="14">
         <v>9</v>
@@ -1785,10 +1844,10 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="14">
         <v>5</v>
@@ -1806,12 +1865,12 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>35</v>
       </c>
       <c r="E23" s="14">
         <v>1</v>
@@ -1829,10 +1888,10 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="14">
         <v>3</v>
@@ -1850,10 +1909,10 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="14">
         <v>6</v>
@@ -1871,10 +1930,10 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="14">
         <v>4</v>
@@ -1893,10 +1952,10 @@
       <c r="U26" s="13"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="D27" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="14">
         <v>3</v>
@@ -1914,11 +1973,11 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="28"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="34"/>
       <c r="E28" s="14">
         <v>1</v>
       </c>
@@ -1935,14 +1994,14 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>39</v>
-      </c>
       <c r="D29" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13"/>
@@ -1955,10 +2014,10 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="14">
         <v>3</v>
@@ -1976,10 +2035,10 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="14">
         <v>5</v>
@@ -1997,10 +2056,10 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="14">
         <v>2</v>
@@ -2018,10 +2077,10 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="14">
         <v>7</v>
@@ -2039,12 +2098,12 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="E34" s="14">
         <v>9</v>
@@ -2069,15 +2128,15 @@
         <f>SUM(E5:E34)</f>
         <v>90</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="18"/>
       <c r="J35" s="19">
         <f>SUM(J5:J34)</f>
-        <v>-90</v>
+        <v>-75.5</v>
       </c>
       <c r="K35" s="16"/>
     </row>
@@ -2088,22 +2147,22 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C11:C15"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C11:C15"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C23:C27"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="B16:B28"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="B29:B34"/>
     <mergeCell ref="C29:C33"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C23:C27"/>
   </mergeCells>
   <conditionalFormatting sqref="K35 B35:F35">
     <cfRule type="expression" dxfId="6" priority="17">

--- a/Project Timeline.xlsx
+++ b/Project Timeline.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidde\Dropbox\Kieran Third year\BCIT254 Interactive Media Application Development\InteractiveMediaProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37725982-33EC-40BE-AABF-8D8A64AEC645}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -195,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -884,14 +878,26 @@
     <xf numFmtId="2" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -902,6 +908,39 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,72 +956,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="% complete" xfId="16"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
+    <cellStyle name="Activity" xfId="2"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
+    <cellStyle name="Actual legend" xfId="15"/>
     <cellStyle name="Bad" xfId="19" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Label" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent Complete" xfId="6"/>
+    <cellStyle name="Period Headers" xfId="3"/>
+    <cellStyle name="Period Highlight Control" xfId="7"/>
+    <cellStyle name="Period Value" xfId="13"/>
+    <cellStyle name="Plan legend" xfId="14"/>
+    <cellStyle name="Project Headers" xfId="4"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
@@ -1309,15 +1303,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1332,10 @@
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="48"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="8" t="s">
@@ -1365,54 +1359,54 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" s="1" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -1440,8 +1434,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
@@ -1467,8 +1461,8 @@
       <c r="K6" s="21"/>
     </row>
     <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
@@ -1494,8 +1488,8 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="22" t="s">
         <v>16</v>
       </c>
@@ -1521,8 +1515,8 @@
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="22" t="s">
         <v>19</v>
       </c>
@@ -1548,7 +1542,7 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="22" t="s">
         <v>20</v>
       </c>
@@ -1577,8 +1571,8 @@
       <c r="K10" s="21"/>
     </row>
     <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="30" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -1606,8 +1600,8 @@
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="22" t="s">
         <v>17</v>
       </c>
@@ -1633,8 +1627,8 @@
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="22" t="s">
         <v>16</v>
       </c>
@@ -1660,8 +1654,8 @@
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="22" t="s">
         <v>19</v>
       </c>
@@ -1687,8 +1681,8 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="22" t="s">
         <v>18</v>
       </c>
@@ -1714,10 +1708,10 @@
       <c r="K15" s="21"/>
     </row>
     <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="34" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -1726,126 +1720,162 @@
       <c r="E16" s="14">
         <v>1</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
+      <c r="F16" s="25">
+        <v>43748</v>
+      </c>
+      <c r="G16" s="14">
+        <v>3</v>
+      </c>
+      <c r="H16" s="25">
+        <v>43763</v>
+      </c>
       <c r="I16" s="20">
         <v>43770</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="14">
         <v>2</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
+      <c r="F17" s="25">
+        <v>43763</v>
+      </c>
+      <c r="G17" s="14">
+        <v>7</v>
+      </c>
+      <c r="H17" s="25">
+        <v>43763</v>
+      </c>
       <c r="I17" s="20">
         <v>43770</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="14">
         <v>3</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
+      <c r="F18" s="25">
+        <v>43764</v>
+      </c>
+      <c r="G18" s="14">
+        <v>2</v>
+      </c>
+      <c r="H18" s="25">
+        <v>43764</v>
+      </c>
       <c r="I18" s="20">
         <v>43770</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="14">
         <v>4</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
+      <c r="F19" s="25">
+        <v>43764</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="25">
+        <v>43764</v>
+      </c>
       <c r="I19" s="20">
         <v>43770</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="22" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="14">
         <v>5</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
+      <c r="F20" s="25">
+        <v>43764</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="25">
+        <v>43764</v>
+      </c>
       <c r="I20" s="20">
         <v>43770</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="14">
         <v>9</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
+      <c r="F21" s="25">
+        <v>43764</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="25">
+        <v>43764</v>
+      </c>
       <c r="I21" s="20">
         <v>43770</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="22" t="s">
         <v>29</v>
       </c>
@@ -1865,8 +1895,8 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="22" t="s">
@@ -1888,8 +1918,8 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="22" t="s">
         <v>40</v>
       </c>
@@ -1909,8 +1939,8 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="22" t="s">
         <v>41</v>
       </c>
@@ -1930,8 +1960,8 @@
       <c r="K25" s="21"/>
     </row>
     <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
@@ -1952,8 +1982,8 @@
       <c r="U26" s="13"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="22" t="s">
         <v>35</v>
       </c>
@@ -1973,11 +2003,11 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33" t="s">
+      <c r="B28" s="36"/>
+      <c r="C28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="14">
         <v>1</v>
       </c>
@@ -1994,10 +2024,10 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="50" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="22" t="s">
@@ -2014,8 +2044,8 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="31"/>
-      <c r="C30" s="36"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="22" t="s">
         <v>44</v>
       </c>
@@ -2035,8 +2065,8 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="31"/>
-      <c r="C31" s="36"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="22" t="s">
         <v>39</v>
       </c>
@@ -2056,8 +2086,8 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="31"/>
-      <c r="C32" s="36"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="22" t="s">
         <v>43</v>
       </c>
@@ -2077,8 +2107,8 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="31"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="22" t="s">
         <v>39</v>
       </c>
@@ -2098,7 +2128,7 @@
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="23" t="s">
         <v>45</v>
       </c>
@@ -2128,20 +2158,33 @@
         <f>SUM(E5:E34)</f>
         <v>90</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
       <c r="I35" s="18"/>
       <c r="J35" s="19">
         <f>SUM(J5:J34)</f>
-        <v>-75.5</v>
+        <v>-60.5</v>
       </c>
       <c r="K35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="B16:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="E3:E4"/>
@@ -2150,19 +2193,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="B16:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C33"/>
   </mergeCells>
   <conditionalFormatting sqref="K35 B35:F35">
     <cfRule type="expression" dxfId="6" priority="17">
@@ -2248,13 +2278,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="C3:D3 B3:B4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="G3:G4 H3:J3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="K3:K4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B2:D2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="C3:D3 B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="G3:G4 H3:J3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="K3:K4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B2:D2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
